--- a/biology/Botanique/André_Bertin/André_Bertin.xlsx
+++ b/biology/Botanique/André_Bertin/André_Bertin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Bertin</t>
+          <t>André_Bertin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Bertin, né le 18 novembre 1879 à Pontoise (Val-d'Oise) et mort le 7 septembre 1956, est un ingénieur des eaux et forêts français, spécialiste des bois tropicaux – principalement d'Afrique centrale – sous l'ère coloniale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Bertin</t>
+          <t>André_Bertin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formé à l'École nationale des eaux et forêts de Nancy[1], il fut notamment conseiller technique au ministère des colonies, professeur à l'École nationale supérieure d'agriculture coloniale, inspecteur au Ministère des Colonies de 1919 à 1925. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formé à l'École nationale des eaux et forêts de Nancy, il fut notamment conseiller technique au ministère des colonies, professeur à l'École nationale supérieure d'agriculture coloniale, inspecteur au Ministère des Colonies de 1919 à 1925. 
 Il dirige une mission d'études forestières envoyée dans les colonies françaises par les ministères de la Guerre, de l'Armement et des Colonies, qui donne lieu entre 1918 et 1929 à une série de publications en cinq volumes (I. Les bois de la Côte d'Ivoire, II. Les bois du Gabon, III. La question forestière coloniale, IV. Les bois du Cameroun, V. Les bois de la Guyane française et du Brésil).
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Bertin</t>
+          <t>André_Bertin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice sur quelques modes de transports forestiers qui pourraient être avantageusement employés dans les forêts coloniales, Brazzaville, 1917, 15 p.
 Les bois de la Côte d'Ivoire (Mission d'études forestières envoyée dans les colonies françaises par les ministères de la guerre, de l'armement et des colonies, vol. I), É. Larose, Paris, 1918, 178 p. + pl.), [lire en ligne]
